--- a/output/p_values_table.xlsx
+++ b/output/p_values_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aksha\OneDrive\Documents\mitb_sem2.5\Health_Analytics\Health_Leo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D4FC5E1-9409-4592-8C5E-82C07DC101E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41379A43-CBDD-4856-82A8-238E39B855D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{E0960C82-3E09-44A0-9614-669448EC9F4E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Mortality</t>
   </si>
@@ -80,7 +80,7 @@
     <t>Predictors / Features</t>
   </si>
   <si>
-    <t>~0</t>
+    <t>0 refers to tending to zero</t>
   </si>
 </sst>
 </file>
@@ -142,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -159,6 +159,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440BAF15-1145-4467-AA0F-376F6836759B}">
-  <dimension ref="B3:D16"/>
+  <dimension ref="B3:D18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -586,8 +587,8 @@
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
+      <c r="C5" s="1">
+        <v>0</v>
       </c>
       <c r="D5" s="5">
         <v>1.4999999999999999E-128</v>
@@ -608,8 +609,8 @@
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
+      <c r="C7" s="1">
+        <v>0</v>
       </c>
       <c r="D7" s="5">
         <v>1.6000000000000001E-258</v>
@@ -641,8 +642,8 @@
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>14</v>
+      <c r="C10" s="1">
+        <v>0</v>
       </c>
       <c r="D10" s="5">
         <v>1.0099999999999999E-74</v>
@@ -652,70 +653,87 @@
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>14</v>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>14</v>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>14</v>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>14</v>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>14</v>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B18" s="6" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="C4:D16">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/output/p_values_table.xlsx
+++ b/output/p_values_table.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aksha\OneDrive\Documents\mitb_sem2.5\Health_Analytics\Health_Leo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41379A43-CBDD-4856-82A8-238E39B855D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F73D26D-F347-43A8-8324-12FA5D8CF068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{E0960C82-3E09-44A0-9614-669448EC9F4E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{E0960C82-3E09-44A0-9614-669448EC9F4E}"/>
   </bookViews>
   <sheets>
     <sheet name="p-values" sheetId="1" r:id="rId1"/>
+    <sheet name="Logist_ICU" sheetId="2" r:id="rId2"/>
+    <sheet name="Logist_Mortality" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
   <si>
     <t>Mortality</t>
   </si>
@@ -81,13 +83,97 @@
   </si>
   <si>
     <t>0 refers to tending to zero</t>
+  </si>
+  <si>
+    <t>CVARCRICategory</t>
+  </si>
+  <si>
+    <t>IHDRCRICategory</t>
+  </si>
+  <si>
+    <t>CHFRCRICategory</t>
+  </si>
+  <si>
+    <t>DMinsulinRCRICategory</t>
+  </si>
+  <si>
+    <t>CreatinineRCRICategory</t>
+  </si>
+  <si>
+    <t>RDW15.7</t>
+  </si>
+  <si>
+    <t>Predictor</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>const</t>
+  </si>
+  <si>
+    <t>Anemia category</t>
+  </si>
+  <si>
+    <t>Perioperativetransfusionwithin30days</t>
+  </si>
+  <si>
+    <t>SurgRiskCategory</t>
+  </si>
+  <si>
+    <t>PriorityCategory</t>
+  </si>
+  <si>
+    <t>GradeofKidneyCategory</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>Indian</t>
+  </si>
+  <si>
+    <t>Malay</t>
+  </si>
+  <si>
+    <t>The significant positive predictors increase the likelihood of ICU admission, meaning these factors are associated with a higher risk of needing intensive care.</t>
+  </si>
+  <si>
+    <t>Significant Positive Predictors: AGEcategory, GENDER, Perioperativetransfusionwithin30days, SurgRiskCategory, PriorityCategory, GradeofKidneyCategory, ASAcategorybinned, and CHFRCRICategory.</t>
+  </si>
+  <si>
+    <t>Significant negative predictors decrease the likelihood, indicating that these factors are associated with a lower risk of ICU admission.</t>
+  </si>
+  <si>
+    <t>Significant Negative Predictors: AnaestypeCategory, DMinsulinRCRICategory, and CreatinineRCRICategory.</t>
+  </si>
+  <si>
+    <t>Non-significant predictors did not have a statistically meaningful impact on ICU admission in this model.</t>
+  </si>
+  <si>
+    <t>Non-Significant Predictors: Anemia category, RDW15.7, CVARCRICategory, IHDRCRICategory, Indian, and Malay</t>
+  </si>
+  <si>
+    <t>Significant Positive Predictors: AGEcategory, GENDER, Anemia category, Perioperativetransfusionwithin30days, SurgRiskCategory, PriorityCategory, GradeofKidneyCategory, RDW15.7, ASAcategorybinned, Chinese, Indian, Malay, and CHFRICategory. These factors increase the likelihood of mortality.</t>
+  </si>
+  <si>
+    <t>Significant Negative Predictors: AnaestypeCategory and IHDRCRICategory.</t>
+  </si>
+  <si>
+    <t>These factors decrease the likelihood of mortality.</t>
+  </si>
+  <si>
+    <t>Non-Significant Predictors: CVARCRICategory, DMinsulinRCRICategory, and CreatinineRCRICategory.</t>
+  </si>
+  <si>
+    <t>These factors do not have a statistically significant effect on mortality in this model.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,8 +195,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,8 +229,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -138,50 +256,239 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="15">
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-      </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -201,6 +508,132 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -216,16 +649,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B7A0A1B5-6E75-40A6-8EF1-417EEF048D44}" name="Table1" displayName="Table1" ref="B3:D16" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="B3:D16" xr:uid="{B7A0A1B5-6E75-40A6-8EF1-417EEF048D44}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B7A0A1B5-6E75-40A6-8EF1-417EEF048D44}" name="Table1" displayName="Table1" ref="B4:D17" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
+  <autoFilter ref="B4:D17" xr:uid="{B7A0A1B5-6E75-40A6-8EF1-417EEF048D44}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{BB4E1657-1DC0-49D2-8D4E-73443C1F52FE}" name="Predictors / Features" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{14AF9BB6-86D1-4ED2-8CC4-94A3FD5F627A}" name="Mortality" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{CFEA4882-772A-4EE4-B0B5-ADE97670D1ED}" name="ICUAdmgt24h" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{BB4E1657-1DC0-49D2-8D4E-73443C1F52FE}" name="Predictors / Features" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{14AF9BB6-86D1-4ED2-8CC4-94A3FD5F627A}" name="Mortality" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{CFEA4882-772A-4EE4-B0B5-ADE97670D1ED}" name="ICUAdmgt24h" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -548,10 +981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440BAF15-1145-4467-AA0F-376F6836759B}">
-  <dimension ref="B3:D18"/>
+  <dimension ref="B4:D19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -559,171 +992,174 @@
     <col min="2" max="2" width="24.73046875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" customWidth="1"/>
     <col min="4" max="4" width="13.59765625" customWidth="1"/>
+    <col min="7" max="7" width="25.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C5" s="7">
         <v>9.8000000000000003E-21</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D5" s="8">
         <v>3.3000000000000002E-18</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B5" s="3" t="s">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8">
         <v>1.4999999999999999E-128</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B6" s="3" t="s">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C7" s="7">
         <v>4.7E-226</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D7" s="8">
         <v>3.0999999999999998E-284</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B7" s="3" t="s">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="C8" s="9">
+        <v>0</v>
+      </c>
+      <c r="D8" s="8">
         <v>1.6000000000000001E-258</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B8" s="3" t="s">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C9" s="7">
         <v>5.5000000000000002E-39</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D9" s="8">
         <v>7.1E-27</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B9" s="3" t="s">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C10" s="7">
         <v>1.5000000000000001E-85</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D10" s="10">
         <v>0.26</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B10" s="3" t="s">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="C11" s="9">
+        <v>0</v>
+      </c>
+      <c r="D11" s="8">
         <v>1.0099999999999999E-74</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B11" s="3" t="s">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="9">
+        <v>0</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B13" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="9">
+        <v>0</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B14" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="9">
+        <v>0</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="9">
+        <v>0</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="9">
+        <v>0</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B17" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="1">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B18" s="6" t="s">
+      <c r="C17" s="13">
+        <v>0</v>
+      </c>
+      <c r="D17" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="C4:D16">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="C5:D17">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -739,4 +1175,435 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F0B2E3-CB0C-4725-AAE4-5FD356B97CD1}">
+  <dimension ref="B2:E22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="30.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B2" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B3" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B4" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E5" s="20"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B7" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B8" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="20"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B9" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B11" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B12" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B13" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.51800000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B14" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B15" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B16" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.65400000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B17" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B18" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.19700000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.95299999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B20" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B22" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C4:C22">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThanOrEqual">
+      <formula>0.05</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{385FD301-5872-4168-B126-296A6152DE05}">
+  <dimension ref="B3:E23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.73046875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B3" s="18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B4" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B5" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0</v>
+      </c>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B7" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B8" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B9" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0</v>
+      </c>
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B10" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B11" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="15">
+        <v>0</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B12" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B13" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B14" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B15" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B16" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B17" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B18" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B19" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="15">
+        <v>0.54700000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B21" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="15">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B22" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="15">
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B23" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="15">
+        <v>0.23499999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C5:C23">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
+      <formula>0.05</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>